--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H2">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I2">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J2">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N2">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q2">
-        <v>975.4145930154402</v>
+        <v>47.04433267542844</v>
       </c>
       <c r="R2">
-        <v>8778.731337138963</v>
+        <v>423.398994078856</v>
       </c>
       <c r="S2">
-        <v>0.2422781295247323</v>
+        <v>0.0197475058702455</v>
       </c>
       <c r="T2">
-        <v>0.2422781295247323</v>
+        <v>0.0197475058702455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H3">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I3">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J3">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>30.659075</v>
       </c>
       <c r="O3">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P3">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q3">
-        <v>371.5293552223445</v>
+        <v>18.94957030842222</v>
       </c>
       <c r="R3">
-        <v>3343.7641970011</v>
+        <v>170.5461327758</v>
       </c>
       <c r="S3">
-        <v>0.0922822335152152</v>
+        <v>0.007954342842653355</v>
       </c>
       <c r="T3">
-        <v>0.09228223351521518</v>
+        <v>0.007954342842653355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H4">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I4">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J4">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>24.89228</v>
       </c>
       <c r="O4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q4">
-        <v>301.6468284974044</v>
+        <v>15.38526553710222</v>
       </c>
       <c r="R4">
-        <v>2714.82145647664</v>
+        <v>138.46738983392</v>
       </c>
       <c r="S4">
-        <v>0.07492447817444331</v>
+        <v>0.006458176877656068</v>
       </c>
       <c r="T4">
-        <v>0.0749244781744433</v>
+        <v>0.00645817687765607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>135.346352</v>
       </c>
       <c r="I5">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J5">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N5">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q5">
-        <v>1210.484430786829</v>
+        <v>1144.645588857001</v>
       </c>
       <c r="R5">
-        <v>10894.35987708146</v>
+        <v>10301.81029971301</v>
       </c>
       <c r="S5">
-        <v>0.3006658971578465</v>
+        <v>0.480480733806017</v>
       </c>
       <c r="T5">
-        <v>0.3006658971578465</v>
+        <v>0.480480733806017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>135.346352</v>
       </c>
       <c r="I6">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J6">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>30.659075</v>
       </c>
       <c r="O6">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P6">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q6">
         <v>461.0659952160446</v>
@@ -818,10 +818,10 @@
         <v>4149.593956944401</v>
       </c>
       <c r="S6">
-        <v>0.1145217712635085</v>
+        <v>0.1935387947771862</v>
       </c>
       <c r="T6">
-        <v>0.1145217712635084</v>
+        <v>0.1935387947771862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>135.346352</v>
       </c>
       <c r="I7">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J7">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>24.89228</v>
       </c>
       <c r="O7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q7">
         <v>374.3421434402845</v>
@@ -880,10 +880,10 @@
         <v>3369.079290962561</v>
       </c>
       <c r="S7">
-        <v>0.09298088727031739</v>
+        <v>0.1571352648589775</v>
       </c>
       <c r="T7">
-        <v>0.09298088727031738</v>
+        <v>0.1571352648589776</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>21.932314</v>
       </c>
       <c r="I8">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J8">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N8">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q8">
-        <v>196.1539726473602</v>
+        <v>185.4850618620784</v>
       </c>
       <c r="R8">
-        <v>1765.385753826242</v>
+        <v>1669.365556758706</v>
       </c>
       <c r="S8">
-        <v>0.04872165941759255</v>
+        <v>0.07785990659566486</v>
       </c>
       <c r="T8">
-        <v>0.04872165941759255</v>
+        <v>0.07785990659566486</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>21.932314</v>
       </c>
       <c r="I9">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J9">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>30.659075</v>
       </c>
       <c r="O9">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P9">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q9">
         <v>74.71382887217221</v>
@@ -1004,10 +1004,10 @@
         <v>672.42445984955</v>
       </c>
       <c r="S9">
-        <v>0.01855777721432376</v>
+        <v>0.031362157572114</v>
       </c>
       <c r="T9">
-        <v>0.01855777721432376</v>
+        <v>0.031362157572114</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>21.932314</v>
       </c>
       <c r="I10">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J10">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>24.89228</v>
       </c>
       <c r="O10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q10">
         <v>60.66058901510221</v>
@@ -1066,10 +1066,10 @@
         <v>545.94530113592</v>
       </c>
       <c r="S10">
-        <v>0.01506716646202037</v>
+        <v>0.02546311679948537</v>
       </c>
       <c r="T10">
-        <v>0.01506716646202037</v>
+        <v>0.02546311679948537</v>
       </c>
     </row>
   </sheetData>
